--- a/word2excel/aimed_data/zgt.xlsx
+++ b/word2excel/aimed_data/zgt.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
   <si>
     <t xml:space="preserve"> 题干类型 1文字 2图片 3音频 (根据类型使用对应题目信息)</t>
   </si>
@@ -47,6 +47,465 @@
   </si>
   <si>
     <t xml:space="preserve"> 关键字 (多个关键字 ,隔开)</t>
+  </si>
+  <si>
+    <t>解剖学姿势</t>
+  </si>
+  <si>
+    <t>解剖学姿势：为说明人体局部或器官及结构的位置关系而规定的一种姿势，即身体 直立，面向前，两眼向正前方平视，两足并拢，足尖向前，上肢下垂于躯干两侧，掌心向前。</t>
+  </si>
+  <si>
+    <t>冠状面</t>
+  </si>
+  <si>
+    <t>冠状面：按左右方向，将人体分为前、后两部的纵切面，也叫额状面。</t>
+  </si>
+  <si>
+    <t>矢状面</t>
+  </si>
+  <si>
+    <t>矢状面：按前后方向，将人体分为左、右两部的纵切面，</t>
+  </si>
+  <si>
+    <t>纵切面</t>
+  </si>
+  <si>
+    <t>纵切面：指与器官长轴平行的切面。</t>
+  </si>
+  <si>
+    <t>横切面</t>
+  </si>
+  <si>
+    <t>横切面：指与器官长轴垂直的切面。</t>
+  </si>
+  <si>
+    <t>嗜酸性</t>
+  </si>
+  <si>
+    <t>嗜酸性：是细胞和组织内的碱性物质或结构与酸性染料亲合力强者。</t>
+  </si>
+  <si>
+    <t>内皮</t>
+  </si>
+  <si>
+    <t>内皮：是分布于心、血管、淋巴管内表面的单层扁平上皮，表面光滑。</t>
+  </si>
+  <si>
+    <t>间皮</t>
+  </si>
+  <si>
+    <t>间皮：是分布于胸膜、腹膜、心包膜表面的单层扁平上皮,能分泌浆液。</t>
+  </si>
+  <si>
+    <t>微绒毛</t>
+  </si>
+  <si>
+    <t>微绒毛：在上皮细胞的游离面，由细胞膜与细胞质共同形成的细小指状突起，有扩 大细胞表面积的作用。</t>
+  </si>
+  <si>
+    <t>纤毛</t>
+  </si>
+  <si>
+    <t>纤毛：在上皮细胞的游离面，由细胞膜与细胞质共同形成的较为粗长的突起，可朝 一定的方向摆动，以清除表面的异物。</t>
+  </si>
+  <si>
+    <t>基膜</t>
+  </si>
+  <si>
+    <t>基膜：为上皮组织基底面与深部结缔组织之间的半透膜。有支持、连接和固定作 用，还有利于上皮组织与深部结缔组织进行物质交换。</t>
+  </si>
+  <si>
+    <t>腺上皮</t>
+  </si>
+  <si>
+    <t>腺上皮:具有分泌功能的一类上皮</t>
+  </si>
+  <si>
+    <t>腺</t>
+  </si>
+  <si>
+    <t>腺：以腺上皮为主所构成的器官。</t>
+  </si>
+  <si>
+    <t>内分泌腺</t>
+  </si>
+  <si>
+    <t>内分泌腺：没有导管的一类腺体，分泌物直接渗入血管或淋巴，经血液运往全身。</t>
+  </si>
+  <si>
+    <t>外分泌腺</t>
+  </si>
+  <si>
+    <t>外分泌腺：具有导管的一类腺体，分泌物经导管排到身体表面或其它器官腔内。</t>
+  </si>
+  <si>
+    <t>骨板</t>
+  </si>
+  <si>
+    <t>骨板：骨胶原纤维被粘合质粘合在一起，并由钙盐沉积构成的薄板状结构，即为骨板。</t>
+  </si>
+  <si>
+    <t>骨单位</t>
+  </si>
+  <si>
+    <t>骨单位：又称哈弗斯系统，主要分布于长骨的密质骨内，是由10余层同心圆排列的骨板和骨细胞组成的圆筒状结构。</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>血液：是流动于心血管系统内的红色液体，属于结缔组织，由血浆和血细胞组成。</t>
+  </si>
+  <si>
+    <t>血浆</t>
+  </si>
+  <si>
+    <t>血浆：为血液去除了血细胞后剩下的淡黄色浑浊液体。</t>
+  </si>
+  <si>
+    <t>血清</t>
+  </si>
+  <si>
+    <t>血清:为血液凝固后（血液除去血细胞和纤维蛋白原后）,所析出的淡黄色透明液体。</t>
+  </si>
+  <si>
+    <t>骨折</t>
+  </si>
+  <si>
+    <t>骨折是指骨结构的连续性完全或部分断裂。</t>
+  </si>
+  <si>
+    <t>关节</t>
+  </si>
+  <si>
+    <t>骨与骨之间的连接称骨连接。骨连接又分为直接连接和间接连接，关节是间接连接的一种形式。解剖结构 一般由关节面、关节囊和关节腔三部分构成。</t>
+  </si>
+  <si>
+    <t>运动单位</t>
+  </si>
+  <si>
+    <t>运动单位为位于脊髓前角的alpha运动神经元及其所支配的骨骼肌纤维所构成的结构。它是肌肉运动的机能单位。</t>
+  </si>
+  <si>
+    <t>肌腱</t>
+  </si>
+  <si>
+    <t>肌腱是连接在肌肉两端坚韧的白色纤维组织,一侧是指在肌腹上,另一侧指在骨骼上。</t>
+  </si>
+  <si>
+    <t>强直收缩</t>
+  </si>
+  <si>
+    <t>强直收缩是指每次刺激是时间间隔短于单收缩所持续的时间，肌肉是收缩将出现融合现象，即肌肉不能完全舒张，称为强直收缩。强直收缩分为两种，完全强直收缩和不完全强直收缩。</t>
+  </si>
+  <si>
+    <t>自主神经</t>
+  </si>
+  <si>
+    <t>自主神经一般指植物神经。 植物神经系统是内脏神经纤维中的传出神经、也称自律神经；植物神经系统掌握着性命攸关的生理功能：如心脏搏动、呼吸、消化、血压、新陈代谢等。</t>
+  </si>
+  <si>
+    <t>蛛网膜下腔</t>
+  </si>
+  <si>
+    <t>蛛网膜下腔是在脊髓的蛛网膜和软脊膜之间，有1个宽大的间隙，腰部最大，内含脑脊液。</t>
+  </si>
+  <si>
+    <t>周围神经</t>
+  </si>
+  <si>
+    <t>周围神经是指大脑除第一、第二对嗅和视神经以外的12对颅神经，和脊髓发出的31对脊神经合并所成为，周围神经有前角细胞发出的运动神经和后角细胞发出的感觉神经，以及侧角细胞发出的植物神经合并成神经根，具有感觉、运动和植物神经的功能。</t>
+  </si>
+  <si>
+    <t>反射弧</t>
+  </si>
+  <si>
+    <t>反射活动的结构基础称为反射弧，包括感受器、传入神经、神经中枢、传出神经、效应器。</t>
+  </si>
+  <si>
+    <t>神经节</t>
+  </si>
+  <si>
+    <t>神经节是功能相同的神经元细胞体在中枢以外的周围部位集合而成的结节状构造。</t>
+  </si>
+  <si>
+    <t>神经核</t>
+  </si>
+  <si>
+    <t>神经核是指位于中枢神经系统中的一种结构，由许多神经元细胞体和周围神经纤维组成，具有调节和控制神经系统活动的作用。神经核分布于脑和脊髓等中枢神经系统结构中，包括基底节、苍白球、红核、黑质等。</t>
+  </si>
+  <si>
+    <t>盲点</t>
+  </si>
+  <si>
+    <t>视网膜上无感光细胞的部位称为盲点，盲点是视神经穿过的地方。这个地方没有视觉细胞,物体的影像落在这个地方也不能引起视觉。</t>
+  </si>
+  <si>
+    <t>黄斑</t>
+  </si>
+  <si>
+    <t>黄斑：在眼底视神经盘的颞侧0．35cm处并稍下方，处于人眼的光学中心区，是视力轴线的投影点。</t>
+  </si>
+  <si>
+    <t>房水循环</t>
+  </si>
+  <si>
+    <t>房水的循环途径：睫状体产生→进入后房→越过瞳孔到达前房→再从前房的小梁网进入巩膜静脉窦→然后通过集液管和房水静脉→汇入巩膜表面的睫状前静脉→回流到血循环，另有少部分从房角的睫状带经由葡萄膜巩膜途径引流和通过虹膜表面隐窝吸收。</t>
+  </si>
+  <si>
+    <t>膜迷路</t>
+  </si>
+  <si>
+    <t>膜迷路是套在骨迷路内的封闭的膜性管道，被内淋巴液填充。根据其与骨迷路的对应关系依次分为膜半规管、椭圆囊和球囊、蜗管。</t>
+  </si>
+  <si>
+    <t>每分输出量</t>
+  </si>
+  <si>
+    <t>每分钟一侧心室射出的血液总量，又称每分输出量。</t>
+  </si>
+  <si>
+    <t>心动周期</t>
+  </si>
+  <si>
+    <t>心脏每舒、缩一次所构成的机械活动周期,称为心动周期。</t>
+  </si>
+  <si>
+    <t>血压</t>
+  </si>
+  <si>
+    <t>血压是指血液在血管内流动时作用于单位面积血管壁的侧压力。</t>
+  </si>
+  <si>
+    <t>等容舒张期</t>
+  </si>
+  <si>
+    <t>心室肌开始舒张后，室内压下降，主动脉血液向心室方向返流，推动半月瓣关闭；这时室内压仍明显高于心房，房室瓣依然处于关闭状态，心室又成为封闭腔。此时心室肌舒张，室内压急剧下降，但容积并不改变，从半月瓣关闭，直到室内压下降到低于心房压，房室瓣开启时为止，称为等容舒张期。</t>
+  </si>
+  <si>
+    <t>射血期</t>
+  </si>
+  <si>
+    <t>射血期是指当心室收缩使室内压升高超过主动脉压时，动脉瓣被打开，血液由心室射入动脉的一个时期。</t>
+  </si>
+  <si>
+    <t>充盈期</t>
+  </si>
+  <si>
+    <t>心室充盈期是指随着心室肌的舒张,室内压力进一步降低,当房内压高于室内压时积聚在心房中的血液将房室瓣冲开,使血液进入心室并充满心室,心室充盈过程分为等容舒张期、快速充盈期、减慢充盈期和房缩充盈期。</t>
+  </si>
+  <si>
+    <t>解剖无效腔</t>
+  </si>
+  <si>
+    <t>每次吸入的气体，一部分将留在口或鼻与终末细支气管之间的呼吸道内，这部分气体不能与血液进行气体交换，故将这部分呼吸道的容积称为解剖无效腔。</t>
+  </si>
+  <si>
+    <t>生理无效腔</t>
+  </si>
+  <si>
+    <t>肺泡无效腔与解剖无效腔一起合称生理无效腔，是呼吸系统中不能参与肺泡与血液之间气体交换的腔。</t>
+  </si>
+  <si>
+    <t>残气量</t>
+  </si>
+  <si>
+    <t>残气量是最大呼气末，仍存在于肺内，不能再被呼出的气体量。</t>
+  </si>
+  <si>
+    <t>肺活量</t>
+  </si>
+  <si>
+    <t>肺活量是指在不限时间的情况下，一次最大吸气后再尽最大能力所呼出的气体量，这代表肺一次最大的机能活动量，是反映人体生长发育水平的指标之一。</t>
+  </si>
+  <si>
+    <t>呼吸膜</t>
+  </si>
+  <si>
+    <t>呼吸膜是指肺泡气体与肺毛细血管血液之间进行气体交换所通过的组织结构。</t>
+  </si>
+  <si>
+    <t>肺泡表面活性物质</t>
+  </si>
+  <si>
+    <t>肺泡表面活性物质由肺泡上皮2型细胞分泌，用于降低肺泡表面张力、降低弹性阻力、维持大小肺泡的稳定性、防止肺水肿。</t>
+  </si>
+  <si>
+    <t>组织呼吸</t>
+  </si>
+  <si>
+    <t>组织呼吸指血液与组织、细胞之间的气体交换过程。</t>
+  </si>
+  <si>
+    <t>肺通气</t>
+  </si>
+  <si>
+    <t>肺通气是肺泡与外界气体之间的气体交换过程。</t>
+  </si>
+  <si>
+    <t>出血</t>
+  </si>
+  <si>
+    <t>血液从血管或心脏溢出至组织间隙、体腔或身体表面的现象。</t>
+  </si>
+  <si>
+    <t>凝血</t>
+  </si>
+  <si>
+    <t>血液凝固，是指血液由流动的液体状态变成不能流动的凝胶状态的过程，是生理性止血的重要环节。血液凝固的实质就是血浆中的可溶性纤维蛋白原变成不可溶的纤维蛋白的过程。</t>
+  </si>
+  <si>
+    <t>纤溶</t>
+  </si>
+  <si>
+    <t>纤溶是指纤维蛋白或纤维蛋白原被纤维蛋白酶溶解、水解的过程。</t>
+  </si>
+  <si>
+    <t>血清是血液凝固后在血浆中除去纤维蛋白原,分离出的淡黄色透明液体。</t>
+  </si>
+  <si>
+    <t>主动免疫</t>
+  </si>
+  <si>
+    <t>主动免疫是指将疫苗或类毒素接种于人体，使机体产生获得性免疫力的一种防治微生物感染的措施，主要用于预防。</t>
+  </si>
+  <si>
+    <t>被动免疫</t>
+  </si>
+  <si>
+    <t>被动免疫是机体被动接受抗体、致敏淋巴细胞或其产物所获得的特异性免疫能力。它与主动产生的自动免疫不同，其特点是效应快，不需经过潜伏期，一经输入，立即可获得免疫力。但维持时间短。</t>
+  </si>
+  <si>
+    <t>超敏反应</t>
+  </si>
+  <si>
+    <t>超敏反应即异常的、过高的免疫应答。即机体与抗原性物质在一定条件下相互作用，产生致敏淋巴细胞或特异性抗体，如与再次进入的抗原结合，可导致机体生理功能紊乱和组织损害的免疫病理反应。又称变态反应。</t>
+  </si>
+  <si>
+    <t>过敏</t>
+  </si>
+  <si>
+    <t>过敏是指已经产生免疫的机体再次接受相同抗原刺激时发生的组织损伤以及功能紊乱反应。</t>
+  </si>
+  <si>
+    <t>过敏原</t>
+  </si>
+  <si>
+    <t>过敏原指能够使人发生过敏的抗原。</t>
+  </si>
+  <si>
+    <t>特异性免疫</t>
+  </si>
+  <si>
+    <t>特异性免疫：又称后天性免疫或获得性免疫。是机体在生活过程中接触病原微生物及抗原异物后产生的免疫力。</t>
+  </si>
+  <si>
+    <t>非特异性免疫</t>
+  </si>
+  <si>
+    <t>非特异性免疫指机体先天具有的正常的生理防御功能，对各种不同的病原微生物和异物的入侵都能作出相应的免疫应答。</t>
+  </si>
+  <si>
+    <t>化学性消化</t>
+  </si>
+  <si>
+    <t>化学性消化是指消化腺分泌的消化液对食物进行化学分解，由消化腺所分泌各种消化酶，将复杂的各种营养物质分解为肠壁可以吸收的简单的化合物。</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>吸收指食物的消化产物,水和无机盐等,通过消化管粘膜上皮细胞进入血液和淋巴的过程。</t>
+  </si>
+  <si>
+    <t>上消化道</t>
+  </si>
+  <si>
+    <t>十二指肠以上的消化部分称为上消化道，包括口腔、咽、 食管、胃、十二指肠。</t>
+  </si>
+  <si>
+    <t>肝小叶</t>
+  </si>
+  <si>
+    <t>肝小叶是肝脏结构和功能的单位,呈多角形,小叶的中央有一条圆形中 央静脉的横切面,管壁由内皮细胞构成。</t>
+  </si>
+  <si>
+    <t>胃排空</t>
+  </si>
+  <si>
+    <t>食物由胃排入十二指肠的过程称为胃排空。</t>
+  </si>
+  <si>
+    <t>肾单位</t>
+  </si>
+  <si>
+    <t>肾单位是完成肾脏功能的基本单位,主要包括肾小球和肾小管这两部分组成,发挥的作用是排尿作用。</t>
+  </si>
+  <si>
+    <t>球旁器</t>
+  </si>
+  <si>
+    <t>球旁器又称球旁复合体，是远曲小管和入球小动脉在肾皮质中相接触处细胞发生特化所形成的结构，主要由球旁细胞、致密斑和外系膜细胞组成。</t>
+  </si>
+  <si>
+    <t>有效滤过压</t>
+  </si>
+  <si>
+    <t>肾小球有效滤过压=(肾小球毛细血管压+囊内液胶体渗透压)-(血浆胶体渗透压+肾小囊内压)</t>
+  </si>
+  <si>
+    <t>原尿</t>
+  </si>
+  <si>
+    <t>肾脏分为皮质和髓质，血液流过肾脏时先经过肾脏的皮质，也就是由肾小球滤过形成的尿叫做原尿。</t>
+  </si>
+  <si>
+    <t>超滤</t>
+  </si>
+  <si>
+    <t>循环血液经过肾小球毛细血管时，血浆中的水和小分子溶质，包括少量分子量较小的血浆蛋白，可以滤入肾小囊的囊腔而形成滤过液。这种滤过液就是超滤液。</t>
+  </si>
+  <si>
+    <t>受精</t>
+  </si>
+  <si>
+    <t>精子和卵子结合叫受孕或受精。</t>
+  </si>
+  <si>
+    <t>精子发生</t>
+  </si>
+  <si>
+    <t>精子在睾丸的曲细精管中产生。</t>
+  </si>
+  <si>
+    <t>排卵</t>
+  </si>
+  <si>
+    <t>排卵是指成熟卵泡破裂，从卵泡壁脱落的次级卵母细胞连同透明带、放射冠与卵泡液一起从卵巢排出的过程。</t>
+  </si>
+  <si>
+    <t>不感蒸发</t>
+  </si>
+  <si>
+    <t>人类的水分由皮肤和呼吸道粘膜进行蒸发，称为不感蒸发。</t>
+  </si>
+  <si>
+    <t>基础代谢</t>
+  </si>
+  <si>
+    <t>基础代谢是指人体基础状态下的能量代谢,基础状态是人体在清醒而又非常安静的状态下,不受肌肉活动、环境温度、食物和精神紧张等影响的状态。</t>
+  </si>
+  <si>
+    <t>基础代谢率</t>
+  </si>
+  <si>
+    <t>基本的生理活动（即血液循环、呼吸及恒定的体温）时，每小时单位表面积最低耗热量减去标准耗热量，其差值与标准耗热量之百分比，称为基础代谢率。</t>
+  </si>
+  <si>
+    <t>体温</t>
+  </si>
+  <si>
+    <t>人体内部温度。</t>
   </si>
 </sst>
 </file>
@@ -59,9 +518,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -69,13 +528,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,36 +678,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -551,176 +980,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -773,7 +1180,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,7 +1190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,39 +1200,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -904,251 +1311,932 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.1083333333333" customWidth="1"/>
-    <col min="2" max="3" width="17.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.1" customWidth="1"/>
+    <col min="5" max="5" width="11.7" customWidth="1"/>
+    <col min="6" max="6" width="22.8" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="255.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="67.5" spans="1:31">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="11:11">
-      <c r="K2" s="4"/>
+    <row r="2" spans="5:9">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="5:9">
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9">
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" ht="19" customHeight="1" spans="5:9">
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" ht="17" customHeight="1" spans="5:9">
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" ht="17" customHeight="1" spans="5:9">
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9">
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9">
+      <c r="E57" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9">
+      <c r="E58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9">
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9">
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9">
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9">
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9">
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9">
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9">
+      <c r="E69" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9">
+      <c r="E70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9">
+      <c r="E71" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" ht="17" customHeight="1" spans="5:9">
+      <c r="E72" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9">
+      <c r="E73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" ht="18" customHeight="1" spans="5:9">
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9">
+      <c r="E75" t="s">
+        <v>156</v>
+      </c>
+      <c r="I75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9">
+      <c r="E76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9">
+      <c r="E77" t="s">
+        <v>160</v>
+      </c>
+      <c r="I77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9">
+      <c r="E78" t="s">
+        <v>162</v>
+      </c>
+      <c r="I78" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
